--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Ra37809078cd1474e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Raa412caeec0d4197"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Raa412caeec0d4197"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R1874dedf09fe4490"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R1874dedf09fe4490"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R9442ef83c24d4399"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R9442ef83c24d4399"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R11cd807d482f43bc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R11cd807d482f43bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R496f4d8a45694394"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R496f4d8a45694394"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Ra63794f1e0964740"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Ra63794f1e0964740"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Ra89d04d6d6034dde"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Ra89d04d6d6034dde"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rb48242f43c7e404b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rb48242f43c7e404b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R8cdb877ffc0742ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R8cdb877ffc0742ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R9c5bf1c8f2fc4da6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R9c5bf1c8f2fc4da6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R02cb950cc4884cc0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R02cb950cc4884cc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R0060cbfbefdc4d68"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R0060cbfbefdc4d68"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R4e0a9fa8cc06470c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R4e0a9fa8cc06470c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rcb15802a159c4972"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rcb15802a159c4972"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R5c9d1391a2db4097"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R5c9d1391a2db4097"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rcd1435dc714847cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rcd1435dc714847cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R05712b4baf254726"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R05712b4baf254726"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R79d80764541a42de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R79d80764541a42de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R9df453612cd44a76"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R9df453612cd44a76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R563b01be659f4faa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R563b01be659f4faa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R69caf55f639d4b51"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/59_JsonMultiColumnAllFeatures.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="R69caf55f639d4b51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Complete" sheetId="1" r:id="Rbbce62d846ac464a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
